--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd34-Sele.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd34-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>83.2151208609977</v>
+        <v>129.2697763333333</v>
       </c>
       <c r="H2">
-        <v>83.2151208609977</v>
+        <v>387.809329</v>
       </c>
       <c r="I2">
-        <v>0.5072991601850404</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="J2">
-        <v>0.5072991601850404</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.34367669531678</v>
+        <v>8.692291666666668</v>
       </c>
       <c r="N2">
-        <v>1.34367669531678</v>
+        <v>26.076875</v>
       </c>
       <c r="O2">
-        <v>0.4069111148101753</v>
+        <v>0.7904374164682153</v>
       </c>
       <c r="P2">
-        <v>0.4069111148101753</v>
+        <v>0.7904374164682152</v>
       </c>
       <c r="Q2">
-        <v>111.8142185988918</v>
+        <v>1123.650599574097</v>
       </c>
       <c r="R2">
-        <v>111.8142185988918</v>
+        <v>10112.85539616687</v>
       </c>
       <c r="S2">
-        <v>0.2064256668131605</v>
+        <v>0.4826830235716678</v>
       </c>
       <c r="T2">
-        <v>0.2064256668131605</v>
+        <v>0.4826830235716677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>83.2151208609977</v>
+        <v>129.2697763333333</v>
       </c>
       <c r="H3">
-        <v>83.2151208609977</v>
+        <v>387.809329</v>
       </c>
       <c r="I3">
-        <v>0.5072991601850404</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="J3">
-        <v>0.5072991601850404</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.95846140416376</v>
+        <v>0.125446</v>
       </c>
       <c r="N3">
-        <v>1.95846140416376</v>
+        <v>0.376338</v>
       </c>
       <c r="O3">
-        <v>0.5930888851898247</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="P3">
-        <v>0.5930888851898247</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="Q3">
-        <v>162.9736024490865</v>
+        <v>16.21637636191133</v>
       </c>
       <c r="R3">
-        <v>162.9736024490865</v>
+        <v>145.947387257202</v>
       </c>
       <c r="S3">
-        <v>0.3008734933718799</v>
+        <v>0.006966017351577376</v>
       </c>
       <c r="T3">
-        <v>0.3008734933718799</v>
+        <v>0.006966017351577376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.3630607386539</v>
+        <v>129.2697763333333</v>
       </c>
       <c r="H4">
-        <v>71.3630607386539</v>
+        <v>387.809329</v>
       </c>
       <c r="I4">
-        <v>0.4350461839913153</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="J4">
-        <v>0.4350461839913153</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.34367669531678</v>
+        <v>0.09408699999999999</v>
       </c>
       <c r="N4">
-        <v>1.34367669531678</v>
+        <v>0.282261</v>
       </c>
       <c r="O4">
-        <v>0.4069111148101753</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="P4">
-        <v>0.4069111148101753</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="Q4">
-        <v>95.88888162100513</v>
+        <v>12.16260544587433</v>
       </c>
       <c r="R4">
-        <v>95.88888162100513</v>
+        <v>109.463449012869</v>
       </c>
       <c r="S4">
-        <v>0.1770251277218187</v>
+        <v>0.005224651838702393</v>
       </c>
       <c r="T4">
-        <v>0.1770251277218187</v>
+        <v>0.005224651838702393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.3630607386539</v>
+        <v>129.2697763333333</v>
       </c>
       <c r="H5">
-        <v>71.3630607386539</v>
+        <v>387.809329</v>
       </c>
       <c r="I5">
-        <v>0.4350461839913153</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="J5">
-        <v>0.4350461839913153</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.95846140416376</v>
+        <v>2.040985</v>
       </c>
       <c r="N5">
-        <v>1.95846140416376</v>
+        <v>6.122954999999999</v>
       </c>
       <c r="O5">
-        <v>0.5930888851898247</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="P5">
-        <v>0.5930888851898247</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="Q5">
-        <v>139.7618001396478</v>
+        <v>263.8376744496883</v>
       </c>
       <c r="R5">
-        <v>139.7618001396478</v>
+        <v>2374.539070047195</v>
       </c>
       <c r="S5">
-        <v>0.2580210562694966</v>
+        <v>0.113335912857398</v>
       </c>
       <c r="T5">
-        <v>0.2580210562694966</v>
+        <v>0.113335912857398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.198504895437178</v>
+        <v>129.2697763333333</v>
       </c>
       <c r="H6">
-        <v>0.198504895437178</v>
+        <v>387.809329</v>
       </c>
       <c r="I6">
-        <v>0.001210133034789566</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="J6">
-        <v>0.001210133034789566</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.34367669531678</v>
+        <v>0.04400233333333333</v>
       </c>
       <c r="N6">
-        <v>1.34367669531678</v>
+        <v>0.132007</v>
       </c>
       <c r="O6">
-        <v>0.4069111148101753</v>
+        <v>0.004001371791509515</v>
       </c>
       <c r="P6">
-        <v>0.4069111148101753</v>
+        <v>0.004001371791509514</v>
       </c>
       <c r="Q6">
-        <v>0.2667264019052303</v>
+        <v>5.688171788144778</v>
       </c>
       <c r="R6">
-        <v>0.2667264019052303</v>
+        <v>51.19354609330299</v>
       </c>
       <c r="S6">
-        <v>0.0004924165822548428</v>
+        <v>0.002443449910797407</v>
       </c>
       <c r="T6">
-        <v>0.0004924165822548428</v>
+        <v>0.002443449910797407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.198504895437178</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H7">
-        <v>0.198504895437178</v>
+        <v>216.067345</v>
       </c>
       <c r="I7">
-        <v>0.001210133034789566</v>
+        <v>0.3402243694466038</v>
       </c>
       <c r="J7">
-        <v>0.001210133034789566</v>
+        <v>0.3402243694466039</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.95846140416376</v>
+        <v>8.692291666666668</v>
       </c>
       <c r="N7">
-        <v>1.95846140416376</v>
+        <v>26.076875</v>
       </c>
       <c r="O7">
-        <v>0.5930888851898247</v>
+        <v>0.7904374164682153</v>
       </c>
       <c r="P7">
-        <v>0.5930888851898247</v>
+        <v>0.7904374164682152</v>
       </c>
       <c r="Q7">
-        <v>0.388764176251276</v>
+        <v>626.040127460764</v>
       </c>
       <c r="R7">
-        <v>0.388764176251276</v>
+        <v>5634.361147146875</v>
       </c>
       <c r="S7">
-        <v>0.0007177164525347229</v>
+        <v>0.2689260716049011</v>
       </c>
       <c r="T7">
-        <v>0.0007177164525347229</v>
+        <v>0.2689260716049012</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.447113901992034</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H8">
-        <v>0.447113901992034</v>
+        <v>216.067345</v>
       </c>
       <c r="I8">
-        <v>0.002725712642615704</v>
+        <v>0.3402243694466038</v>
       </c>
       <c r="J8">
-        <v>0.002725712642615704</v>
+        <v>0.3402243694466039</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.34367669531678</v>
+        <v>0.125446</v>
       </c>
       <c r="N8">
-        <v>1.34367669531678</v>
+        <v>0.376338</v>
       </c>
       <c r="O8">
-        <v>0.4069111148101753</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="P8">
-        <v>0.4069111148101753</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="Q8">
-        <v>0.6007765302588469</v>
+        <v>9.034928053623332</v>
       </c>
       <c r="R8">
-        <v>0.6007765302588469</v>
+        <v>81.31435248260999</v>
       </c>
       <c r="S8">
-        <v>0.001109122770058945</v>
+        <v>0.003881105383050894</v>
       </c>
       <c r="T8">
-        <v>0.001109122770058945</v>
+        <v>0.003881105383050894</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.447113901992034</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H9">
-        <v>0.447113901992034</v>
+        <v>216.067345</v>
       </c>
       <c r="I9">
-        <v>0.002725712642615704</v>
+        <v>0.3402243694466038</v>
       </c>
       <c r="J9">
-        <v>0.002725712642615704</v>
+        <v>0.3402243694466039</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.95846140416376</v>
+        <v>0.09408699999999999</v>
       </c>
       <c r="N9">
-        <v>1.95846140416376</v>
+        <v>0.282261</v>
       </c>
       <c r="O9">
-        <v>0.5930888851898247</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="P9">
-        <v>0.5930888851898247</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="Q9">
-        <v>0.8756553203164567</v>
+        <v>6.776376096338332</v>
       </c>
       <c r="R9">
-        <v>0.8756553203164567</v>
+        <v>60.98738486704499</v>
       </c>
       <c r="S9">
-        <v>0.001616589872556759</v>
+        <v>0.002910906383424815</v>
       </c>
       <c r="T9">
-        <v>0.001616589872556759</v>
+        <v>0.002910906383424816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.21877928942318</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H10">
-        <v>1.21877928942318</v>
+        <v>216.067345</v>
       </c>
       <c r="I10">
-        <v>0.007429968298767265</v>
+        <v>0.3402243694466038</v>
       </c>
       <c r="J10">
-        <v>0.007429968298767265</v>
+        <v>0.3402243694466039</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.34367669531678</v>
+        <v>2.040985</v>
       </c>
       <c r="N10">
-        <v>1.34367669531678</v>
+        <v>6.122954999999999</v>
       </c>
       <c r="O10">
-        <v>0.4069111148101753</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="P10">
-        <v>0.4069111148101753</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="Q10">
-        <v>1.637645327932672</v>
+        <v>146.9967367116083</v>
       </c>
       <c r="R10">
-        <v>1.637645327932672</v>
+        <v>1322.970630404475</v>
       </c>
       <c r="S10">
-        <v>0.003023336683455649</v>
+        <v>0.06314492188053925</v>
       </c>
       <c r="T10">
-        <v>0.003023336683455649</v>
+        <v>0.06314492188053926</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.21877928942318</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H11">
-        <v>1.21877928942318</v>
+        <v>216.067345</v>
       </c>
       <c r="I11">
-        <v>0.007429968298767265</v>
+        <v>0.3402243694466038</v>
       </c>
       <c r="J11">
-        <v>0.007429968298767265</v>
+        <v>0.3402243694466039</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.95846140416376</v>
+        <v>0.04400233333333333</v>
       </c>
       <c r="N11">
-        <v>1.95846140416376</v>
+        <v>0.132007</v>
       </c>
       <c r="O11">
-        <v>0.5930888851898247</v>
+        <v>0.004001371791509515</v>
       </c>
       <c r="P11">
-        <v>0.5930888851898247</v>
+        <v>0.004001371791509514</v>
       </c>
       <c r="Q11">
-        <v>2.386932198529431</v>
+        <v>3.169155779046111</v>
       </c>
       <c r="R11">
-        <v>2.386932198529431</v>
+        <v>28.522402011415</v>
       </c>
       <c r="S11">
-        <v>0.004406631615311615</v>
+        <v>0.001361364194687752</v>
       </c>
       <c r="T11">
-        <v>0.004406631615311615</v>
+        <v>0.001361364194687752</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.5930178308357</v>
+        <v>0.2262363333333333</v>
       </c>
       <c r="H12">
-        <v>7.5930178308357</v>
+        <v>0.678709</v>
       </c>
       <c r="I12">
-        <v>0.04628884184747196</v>
+        <v>0.001068710042985603</v>
       </c>
       <c r="J12">
-        <v>0.04628884184747196</v>
+        <v>0.001068710042985603</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.34367669531678</v>
+        <v>8.692291666666668</v>
       </c>
       <c r="N12">
-        <v>1.34367669531678</v>
+        <v>26.076875</v>
       </c>
       <c r="O12">
-        <v>0.4069111148101753</v>
+        <v>0.7904374164682153</v>
       </c>
       <c r="P12">
-        <v>0.4069111148101753</v>
+        <v>0.7904374164682152</v>
       </c>
       <c r="Q12">
-        <v>10.2025611064187</v>
+        <v>1.966512194930556</v>
       </c>
       <c r="R12">
-        <v>10.2025611064187</v>
+        <v>17.698609754375</v>
       </c>
       <c r="S12">
-        <v>0.01883544423942671</v>
+        <v>0.0008447484053311752</v>
       </c>
       <c r="T12">
-        <v>0.01883544423942671</v>
+        <v>0.0008447484053311751</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2262363333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.678709</v>
+      </c>
+      <c r="I13">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="J13">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.125446</v>
+      </c>
+      <c r="N13">
+        <v>0.376338</v>
+      </c>
+      <c r="O13">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P13">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q13">
+        <v>0.02838044307133334</v>
+      </c>
+      <c r="R13">
+        <v>0.255423987642</v>
+      </c>
+      <c r="S13">
+        <v>1.219129690062647E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.219129690062647E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2262363333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.678709</v>
+      </c>
+      <c r="I14">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="J14">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.282261</v>
+      </c>
+      <c r="O14">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P14">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q14">
+        <v>0.02128589789433333</v>
+      </c>
+      <c r="R14">
+        <v>0.191573081049</v>
+      </c>
+      <c r="S14">
+        <v>9.143715634529934E-06</v>
+      </c>
+      <c r="T14">
+        <v>9.143715634529934E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2262363333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.678709</v>
+      </c>
+      <c r="I15">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="J15">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.040985</v>
+      </c>
+      <c r="N15">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P15">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q15">
+        <v>0.4617449627883333</v>
+      </c>
+      <c r="R15">
+        <v>4.155704665095</v>
+      </c>
+      <c r="S15">
+        <v>0.0001983503188999657</v>
+      </c>
+      <c r="T15">
+        <v>0.0001983503188999657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2262363333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.678709</v>
+      </c>
+      <c r="I16">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="J16">
+        <v>0.001068710042985603</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.132007</v>
+      </c>
+      <c r="O16">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P16">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q16">
+        <v>0.009954926551444445</v>
+      </c>
+      <c r="R16">
+        <v>0.08959433896299999</v>
+      </c>
+      <c r="S16">
+        <v>4.276306219305512E-06</v>
+      </c>
+      <c r="T16">
+        <v>4.276306219305511E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4825293333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.447588</v>
+      </c>
+      <c r="I17">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="J17">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.692291666666668</v>
+      </c>
+      <c r="N17">
+        <v>26.076875</v>
+      </c>
+      <c r="O17">
+        <v>0.7904374164682153</v>
+      </c>
+      <c r="P17">
+        <v>0.7904374164682152</v>
+      </c>
+      <c r="Q17">
+        <v>4.194285703055557</v>
+      </c>
+      <c r="R17">
+        <v>37.7485713275</v>
+      </c>
+      <c r="S17">
+        <v>0.001801726004188165</v>
+      </c>
+      <c r="T17">
+        <v>0.001801726004188165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4825293333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.447588</v>
+      </c>
+      <c r="I18">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="J18">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.125446</v>
+      </c>
+      <c r="N18">
+        <v>0.376338</v>
+      </c>
+      <c r="O18">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P18">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q18">
+        <v>0.06053137474933334</v>
+      </c>
+      <c r="R18">
+        <v>0.5447823727440001</v>
+      </c>
+      <c r="S18">
+        <v>2.600227063113067E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.600227063113067E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4825293333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.447588</v>
+      </c>
+      <c r="I19">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="J19">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.282261</v>
+      </c>
+      <c r="O19">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P19">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q19">
+        <v>0.04539973738533333</v>
+      </c>
+      <c r="R19">
+        <v>0.408597636468</v>
+      </c>
+      <c r="S19">
+        <v>1.950222116983555E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.950222116983555E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7.5930178308357</v>
-      </c>
-      <c r="H13">
-        <v>7.5930178308357</v>
-      </c>
-      <c r="I13">
-        <v>0.04628884184747196</v>
-      </c>
-      <c r="J13">
-        <v>0.04628884184747196</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.95846140416376</v>
-      </c>
-      <c r="N13">
-        <v>1.95846140416376</v>
-      </c>
-      <c r="O13">
-        <v>0.5930888851898247</v>
-      </c>
-      <c r="P13">
-        <v>0.5930888851898247</v>
-      </c>
-      <c r="Q13">
-        <v>14.87063236281895</v>
-      </c>
-      <c r="R13">
-        <v>14.87063236281895</v>
-      </c>
-      <c r="S13">
-        <v>0.02745339760804525</v>
-      </c>
-      <c r="T13">
-        <v>0.02745339760804525</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4825293333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.447588</v>
+      </c>
+      <c r="I20">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="J20">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.040985</v>
+      </c>
+      <c r="N20">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P20">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q20">
+        <v>0.9848351313933332</v>
+      </c>
+      <c r="R20">
+        <v>8.86351618254</v>
+      </c>
+      <c r="S20">
+        <v>0.0004230525032609905</v>
+      </c>
+      <c r="T20">
+        <v>0.0004230525032609905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4825293333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.447588</v>
+      </c>
+      <c r="I21">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="J21">
+        <v>0.002279403741081145</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.132007</v>
+      </c>
+      <c r="O21">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P21">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q21">
+        <v>0.02123241656844444</v>
+      </c>
+      <c r="R21">
+        <v>0.191091749116</v>
+      </c>
+      <c r="S21">
+        <v>9.120741831023351E-06</v>
+      </c>
+      <c r="T21">
+        <v>9.12074183102335E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.330635666666667</v>
+      </c>
+      <c r="H22">
+        <v>3.991907</v>
+      </c>
+      <c r="I22">
+        <v>0.006285744113551653</v>
+      </c>
+      <c r="J22">
+        <v>0.006285744113551654</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.692291666666668</v>
+      </c>
+      <c r="N22">
+        <v>26.076875</v>
+      </c>
+      <c r="O22">
+        <v>0.7904374164682153</v>
+      </c>
+      <c r="P22">
+        <v>0.7904374164682152</v>
+      </c>
+      <c r="Q22">
+        <v>11.56627331673611</v>
+      </c>
+      <c r="R22">
+        <v>104.096459850625</v>
+      </c>
+      <c r="S22">
+        <v>0.004968487337696061</v>
+      </c>
+      <c r="T22">
+        <v>0.00496848733769606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.330635666666667</v>
+      </c>
+      <c r="H23">
+        <v>3.991907</v>
+      </c>
+      <c r="I23">
+        <v>0.006285744113551653</v>
+      </c>
+      <c r="J23">
+        <v>0.006285744113551654</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.125446</v>
+      </c>
+      <c r="N23">
+        <v>0.376338</v>
+      </c>
+      <c r="O23">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P23">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q23">
+        <v>0.1669229218406667</v>
+      </c>
+      <c r="R23">
+        <v>1.502306296566</v>
+      </c>
+      <c r="S23">
+        <v>7.170455001582282E-05</v>
+      </c>
+      <c r="T23">
+        <v>7.170455001582283E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.330635666666667</v>
+      </c>
+      <c r="H24">
+        <v>3.991907</v>
+      </c>
+      <c r="I24">
+        <v>0.006285744113551653</v>
+      </c>
+      <c r="J24">
+        <v>0.006285744113551654</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.282261</v>
+      </c>
+      <c r="O24">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P24">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q24">
+        <v>0.1251955179696667</v>
+      </c>
+      <c r="R24">
+        <v>1.126759661727</v>
+      </c>
+      <c r="S24">
+        <v>5.37798415042227E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.377984150422271E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.330635666666667</v>
+      </c>
+      <c r="H25">
+        <v>3.991907</v>
+      </c>
+      <c r="I25">
+        <v>0.006285744113551653</v>
+      </c>
+      <c r="J25">
+        <v>0.006285744113551654</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.040985</v>
+      </c>
+      <c r="N25">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P25">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q25">
+        <v>2.715807436131666</v>
+      </c>
+      <c r="R25">
+        <v>24.442266925185</v>
+      </c>
+      <c r="S25">
+        <v>0.001166620785150934</v>
+      </c>
+      <c r="T25">
+        <v>0.001166620785150935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.330635666666667</v>
+      </c>
+      <c r="H26">
+        <v>3.991907</v>
+      </c>
+      <c r="I26">
+        <v>0.006285744113551653</v>
+      </c>
+      <c r="J26">
+        <v>0.006285744113551654</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.132007</v>
+      </c>
+      <c r="O26">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P26">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q26">
+        <v>0.05855107414988889</v>
+      </c>
+      <c r="R26">
+        <v>0.526959667349</v>
+      </c>
+      <c r="S26">
+        <v>2.515159918461256E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.515159918461256E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>8.359407333333333</v>
+      </c>
+      <c r="H27">
+        <v>25.078222</v>
+      </c>
+      <c r="I27">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="J27">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.692291666666668</v>
+      </c>
+      <c r="N27">
+        <v>26.076875</v>
+      </c>
+      <c r="O27">
+        <v>0.7904374164682153</v>
+      </c>
+      <c r="P27">
+        <v>0.7904374164682152</v>
+      </c>
+      <c r="Q27">
+        <v>72.66240670180557</v>
+      </c>
+      <c r="R27">
+        <v>653.96166031625</v>
+      </c>
+      <c r="S27">
+        <v>0.03121335954443096</v>
+      </c>
+      <c r="T27">
+        <v>0.03121335954443096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>8.359407333333333</v>
+      </c>
+      <c r="H28">
+        <v>25.078222</v>
+      </c>
+      <c r="I28">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="J28">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.125446</v>
+      </c>
+      <c r="N28">
+        <v>0.376338</v>
+      </c>
+      <c r="O28">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P28">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q28">
+        <v>1.048654212337333</v>
+      </c>
+      <c r="R28">
+        <v>9.437887911036</v>
+      </c>
+      <c r="S28">
+        <v>0.000450467063412777</v>
+      </c>
+      <c r="T28">
+        <v>0.000450467063412777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>8.359407333333333</v>
+      </c>
+      <c r="H29">
+        <v>25.078222</v>
+      </c>
+      <c r="I29">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="J29">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N29">
+        <v>0.282261</v>
+      </c>
+      <c r="O29">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P29">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q29">
+        <v>0.7865115577713333</v>
+      </c>
+      <c r="R29">
+        <v>7.078604019942</v>
+      </c>
+      <c r="S29">
+        <v>0.000337859274869808</v>
+      </c>
+      <c r="T29">
+        <v>0.000337859274869808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>8.359407333333333</v>
+      </c>
+      <c r="H30">
+        <v>25.078222</v>
+      </c>
+      <c r="I30">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="J30">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.040985</v>
+      </c>
+      <c r="N30">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P30">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q30">
+        <v>17.06142497622333</v>
+      </c>
+      <c r="R30">
+        <v>153.55282478601</v>
+      </c>
+      <c r="S30">
+        <v>0.007329022204131869</v>
+      </c>
+      <c r="T30">
+        <v>0.007329022204131869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.359407333333333</v>
+      </c>
+      <c r="H31">
+        <v>25.078222</v>
+      </c>
+      <c r="I31">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="J31">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.132007</v>
+      </c>
+      <c r="O31">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P31">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q31">
+        <v>0.3678334279504444</v>
+      </c>
+      <c r="R31">
+        <v>3.310500851554</v>
+      </c>
+      <c r="S31">
+        <v>0.0001580090387894139</v>
+      </c>
+      <c r="T31">
+        <v>0.0001580090387894139</v>
       </c>
     </row>
   </sheetData>
